--- a/SolvencyII.UI/SolvencyII.ExcelImportExportLib/ExcelTemplates/BusinessTemplates/qrb_quarterly_solvency_ii_reporting_third_country_branches.xlsx
+++ b/SolvencyII.UI/SolvencyII.ExcelImportExportLib/ExcelTemplates/BusinessTemplates/qrb_quarterly_solvency_ii_reporting_third_country_branches.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremi Kiraga\Desktop\business\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremi Kiraga\Desktop\ExcelGenCmd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="7245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="8550"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="3" r:id="rId1"/>
@@ -124,7 +124,7 @@
     <definedName name="S.28.02.01.06.TD" localSheetId="30">S.28.02.01.06!$C$6:$E$13</definedName>
     <definedName name="Version" localSheetId="0">Info!$B$2:$C$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4059" uniqueCount="2262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4059" uniqueCount="2264">
   <si>
     <t>S.No</t>
   </si>
@@ -316,7 +316,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>Ver:2016.02.29</t>
+    <t>Ver:2016.04.18</t>
   </si>
   <si>
     <t>Back to TOC</t>
@@ -6154,7 +6154,13 @@
     <t>Name of a branch</t>
   </si>
   <si>
+    <t>R0000C0030</t>
+  </si>
+  <si>
     <t>Country of a branch</t>
+  </si>
+  <si>
+    <t>R0000C0040</t>
   </si>
   <si>
     <t>Yes    {s2c_AO:x1}</t>
@@ -6927,7 +6933,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -6935,6 +6941,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6943,6 +6950,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6951,6 +6959,7 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6958,6 +6967,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -7465,9 +7475,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -7517,9 +7527,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -7722,9 +7732,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="50.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -7772,17 +7782,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="55" customWidth="1"/>
-    <col min="3" max="5" width="20.5703125" style="40" customWidth="1"/>
-    <col min="6" max="9" width="20.5703125" style="41" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="40" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" style="56" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="20" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="41" customWidth="1"/>
-    <col min="14" max="16" width="20.5703125" style="20" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" style="41" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" style="59" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="55" customWidth="1"/>
+    <col min="3" max="5" width="20.7109375" style="40" customWidth="1"/>
+    <col min="6" max="9" width="20.7109375" style="41" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="40" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="56" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="20" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="41" customWidth="1"/>
+    <col min="14" max="16" width="20.7109375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="41" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
@@ -7865,7 +7875,7 @@
       <c r="Q4"/>
       <c r="R4"/>
     </row>
-    <row r="5" spans="2:18" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>478</v>
       </c>
@@ -8058,21 +8068,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="48" customWidth="1"/>
-    <col min="3" max="5" width="20.5703125" style="40" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="41" customWidth="1"/>
-    <col min="7" max="8" width="20.5703125" style="40" customWidth="1"/>
-    <col min="9" max="10" width="20.5703125" style="41" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" style="40" customWidth="1"/>
-    <col min="12" max="13" width="20.5703125" style="41" customWidth="1"/>
-    <col min="14" max="15" width="20.5703125" style="40" customWidth="1"/>
-    <col min="16" max="16" width="20.5703125" style="41" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" style="40" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" style="56" customWidth="1"/>
-    <col min="19" max="19" width="20.5703125" style="20" customWidth="1"/>
-    <col min="20" max="20" width="20.5703125" style="33" customWidth="1"/>
-    <col min="21" max="21" width="20.5703125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="48" customWidth="1"/>
+    <col min="3" max="5" width="20.7109375" style="40" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="41" customWidth="1"/>
+    <col min="7" max="8" width="20.7109375" style="40" customWidth="1"/>
+    <col min="9" max="10" width="20.7109375" style="41" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="40" customWidth="1"/>
+    <col min="12" max="13" width="20.7109375" style="41" customWidth="1"/>
+    <col min="14" max="15" width="20.7109375" style="40" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" style="41" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="40" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="56" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="20" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="33" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" x14ac:dyDescent="0.25">
@@ -8369,11 +8379,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="55" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="40" customWidth="1"/>
-    <col min="4" max="6" width="20.5703125" style="41" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="55" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="40" customWidth="1"/>
+    <col min="4" max="6" width="20.7109375" style="41" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -8506,20 +8516,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="55" customWidth="1"/>
-    <col min="3" max="5" width="20.5703125" style="40" customWidth="1"/>
-    <col min="6" max="8" width="20.5703125" style="41" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" style="56" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="20" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" style="41" customWidth="1"/>
-    <col min="12" max="13" width="20.5703125" style="20" customWidth="1"/>
-    <col min="14" max="15" width="20.5703125" style="49" customWidth="1"/>
-    <col min="16" max="18" width="20.5703125" style="20" customWidth="1"/>
-    <col min="19" max="19" width="20.5703125" style="42" customWidth="1"/>
-    <col min="20" max="20" width="20.5703125" style="56" customWidth="1"/>
-    <col min="21" max="21" width="20.5703125" style="20" customWidth="1"/>
-    <col min="22" max="22" width="20.5703125" style="59" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="55" customWidth="1"/>
+    <col min="3" max="5" width="20.7109375" style="40" customWidth="1"/>
+    <col min="6" max="8" width="20.7109375" style="41" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="56" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="20" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="41" customWidth="1"/>
+    <col min="12" max="13" width="20.7109375" style="20" customWidth="1"/>
+    <col min="14" max="15" width="20.7109375" style="49" customWidth="1"/>
+    <col min="16" max="18" width="20.7109375" style="20" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="42" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="56" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" style="20" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" style="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22" x14ac:dyDescent="0.25">
@@ -8856,15 +8866,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="48" customWidth="1"/>
-    <col min="3" max="6" width="20.5703125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="41" customWidth="1"/>
-    <col min="8" max="11" width="20.5703125" style="40" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="41" customWidth="1"/>
-    <col min="13" max="14" width="20.5703125" style="40" customWidth="1"/>
-    <col min="15" max="17" width="20.5703125" style="41" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="48" customWidth="1"/>
+    <col min="3" max="6" width="20.7109375" style="40" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="41" customWidth="1"/>
+    <col min="8" max="11" width="20.7109375" style="40" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="41" customWidth="1"/>
+    <col min="13" max="14" width="20.7109375" style="40" customWidth="1"/>
+    <col min="15" max="17" width="20.7109375" style="41" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
@@ -9117,17 +9127,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="55" customWidth="1"/>
-    <col min="3" max="5" width="20.5703125" style="40" customWidth="1"/>
-    <col min="6" max="8" width="20.5703125" style="41" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" style="20" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="41" customWidth="1"/>
-    <col min="11" max="13" width="20.5703125" style="20" customWidth="1"/>
-    <col min="14" max="15" width="20.5703125" style="49" customWidth="1"/>
-    <col min="16" max="18" width="20.5703125" style="20" customWidth="1"/>
-    <col min="19" max="19" width="20.5703125" style="42" customWidth="1"/>
-    <col min="20" max="20" width="20.5703125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="55" customWidth="1"/>
+    <col min="3" max="5" width="20.7109375" style="40" customWidth="1"/>
+    <col min="6" max="8" width="20.7109375" style="41" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="20" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="41" customWidth="1"/>
+    <col min="11" max="13" width="20.7109375" style="20" customWidth="1"/>
+    <col min="14" max="15" width="20.7109375" style="49" customWidth="1"/>
+    <col min="16" max="18" width="20.7109375" style="20" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" style="42" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
@@ -9443,13 +9453,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="48" customWidth="1"/>
-    <col min="3" max="7" width="20.5703125" style="40" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="41" customWidth="1"/>
-    <col min="9" max="10" width="20.5703125" style="40" customWidth="1"/>
-    <col min="11" max="13" width="20.5703125" style="41" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="48" customWidth="1"/>
+    <col min="3" max="7" width="20.7109375" style="40" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="41" customWidth="1"/>
+    <col min="9" max="10" width="20.7109375" style="40" customWidth="1"/>
+    <col min="11" max="13" width="20.7109375" style="41" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
@@ -9655,9 +9665,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="19" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="19" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.25">
@@ -9718,7 +9728,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16"/>
       <c r="C6" s="3"/>
       <c r="D6" s="77"/>
@@ -10594,9 +10604,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="20" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="20" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
@@ -12502,9 +12512,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="8" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="8" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -13022,9 +13032,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="70.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -13413,9 +13423,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -13581,9 +13591,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -13659,9 +13669,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -14027,9 +14037,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -14103,9 +14113,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -14244,9 +14254,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -14398,9 +14408,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -14506,9 +14516,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="7" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -15062,9 +15072,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -15161,9 +15171,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="7" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="7" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -15358,9 +15368,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -15395,14 +15405,14 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
-        <v>2239</v>
+        <v>2241</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>157</v>
@@ -15411,7 +15421,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="31" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>124</v>
@@ -15420,7 +15430,7 @@
     </row>
     <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="31" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>140</v>
@@ -15429,7 +15439,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="31" t="s">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>146</v>
@@ -15438,7 +15448,7 @@
     </row>
     <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="31" t="s">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>148</v>
@@ -15447,7 +15457,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="31" t="s">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>152</v>
@@ -15456,7 +15466,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="31" t="s">
-        <v>2245</v>
+        <v>2247</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>1934</v>
@@ -15465,7 +15475,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="31" t="s">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>104</v>
@@ -15474,7 +15484,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="31" t="s">
-        <v>2247</v>
+        <v>2249</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>184</v>
@@ -15483,7 +15493,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="31" t="s">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>1910</v>
@@ -15492,7 +15502,7 @@
     </row>
     <row r="18" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="31" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>196</v>
@@ -15501,7 +15511,7 @@
     </row>
     <row r="19" spans="2:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="37" t="s">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>1967</v>
@@ -15572,9 +15582,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -15721,9 +15731,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -15902,7 +15912,7 @@
     <hyperlink ref="B1" location="'Table of contents'!A1" tooltip="Click to navigate Table of contents" display="Back to TOC"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15985,76 +15995,76 @@
         <v>574</v>
       </c>
       <c r="WH1" t="s">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="WI1" t="s">
-        <v>2029</v>
+        <v>2031</v>
       </c>
       <c r="WJ1" t="s">
-        <v>2214</v>
+        <v>2216</v>
       </c>
       <c r="WK1" t="s">
         <v>275</v>
       </c>
       <c r="WL1" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="WM1" t="s">
-        <v>2218</v>
+        <v>2220</v>
       </c>
       <c r="WN1" t="s">
-        <v>2221</v>
+        <v>2223</v>
       </c>
       <c r="WO1" t="s">
-        <v>2223</v>
+        <v>2225</v>
       </c>
       <c r="WP1" t="s">
-        <v>2225</v>
+        <v>2227</v>
       </c>
       <c r="WQ1" t="s">
-        <v>2227</v>
+        <v>2229</v>
       </c>
       <c r="WR1" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="WS1" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c r="WT1" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="WU1" t="s">
-        <v>2235</v>
+        <v>2237</v>
       </c>
       <c r="WV1" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="WW1" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="WX1" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="WY1" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="WZ1" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="XA1" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="XB1" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="XC1" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="XD1" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="XE1" t="s">
-        <v>2251</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="2" spans="583:629" x14ac:dyDescent="0.25">
@@ -16128,73 +16138,73 @@
         <v>575</v>
       </c>
       <c r="WH2" t="s">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="WI2" t="s">
-        <v>2030</v>
+        <v>2032</v>
       </c>
       <c r="WJ2" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="WK2" t="s">
         <v>276</v>
       </c>
       <c r="WL2" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="WM2" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="WN2" t="s">
-        <v>2222</v>
+        <v>2224</v>
       </c>
       <c r="WO2" t="s">
-        <v>2224</v>
+        <v>2226</v>
       </c>
       <c r="WP2" t="s">
-        <v>2226</v>
+        <v>2228</v>
       </c>
       <c r="WQ2" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="WR2" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="WS2" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="WT2" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="WU2" t="s">
-        <v>2236</v>
+        <v>2238</v>
       </c>
       <c r="WW2" t="s">
-        <v>2252</v>
+        <v>2254</v>
       </c>
       <c r="WX2" t="s">
-        <v>2252</v>
+        <v>2254</v>
       </c>
       <c r="WY2" t="s">
-        <v>2252</v>
+        <v>2254</v>
       </c>
       <c r="WZ2" t="s">
-        <v>2256</v>
+        <v>2258</v>
       </c>
       <c r="XA2" t="s">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c r="XB2" t="s">
-        <v>2258</v>
+        <v>2260</v>
       </c>
       <c r="XC2" t="s">
-        <v>2259</v>
+        <v>2261</v>
       </c>
       <c r="XD2" t="s">
-        <v>2260</v>
+        <v>2262</v>
       </c>
       <c r="XE2" t="s">
-        <v>2261</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="3" spans="583:629" x14ac:dyDescent="0.25">
@@ -16256,43 +16266,43 @@
         <v>576</v>
       </c>
       <c r="WI3" t="s">
-        <v>2031</v>
+        <v>2033</v>
       </c>
       <c r="WK3" t="s">
         <v>277</v>
       </c>
       <c r="WM3" t="s">
-        <v>2220</v>
+        <v>2222</v>
       </c>
       <c r="WU3" t="s">
-        <v>2237</v>
+        <v>2239</v>
       </c>
       <c r="WW3" t="s">
-        <v>2253</v>
+        <v>2255</v>
       </c>
       <c r="WX3" t="s">
+        <v>2256</v>
+      </c>
+      <c r="WY3" t="s">
+        <v>2257</v>
+      </c>
+      <c r="WZ3" t="s">
         <v>2254</v>
       </c>
-      <c r="WY3" t="s">
+      <c r="XA3" t="s">
+        <v>2254</v>
+      </c>
+      <c r="XB3" t="s">
+        <v>2254</v>
+      </c>
+      <c r="XC3" t="s">
+        <v>2254</v>
+      </c>
+      <c r="XD3" t="s">
         <v>2255</v>
       </c>
-      <c r="WZ3" t="s">
-        <v>2252</v>
-      </c>
-      <c r="XA3" t="s">
-        <v>2252</v>
-      </c>
-      <c r="XB3" t="s">
-        <v>2252</v>
-      </c>
-      <c r="XC3" t="s">
-        <v>2252</v>
-      </c>
-      <c r="XD3" t="s">
-        <v>2253</v>
-      </c>
       <c r="XE3" t="s">
-        <v>2253</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="4" spans="583:629" x14ac:dyDescent="0.25">
@@ -16351,25 +16361,25 @@
         <v>577</v>
       </c>
       <c r="WI4" t="s">
-        <v>2032</v>
+        <v>2034</v>
       </c>
       <c r="WK4" t="s">
         <v>278</v>
       </c>
       <c r="WY4" t="s">
-        <v>2253</v>
+        <v>2255</v>
       </c>
       <c r="WZ4" t="s">
+        <v>2257</v>
+      </c>
+      <c r="XA4" t="s">
+        <v>2257</v>
+      </c>
+      <c r="XB4" t="s">
         <v>2255</v>
       </c>
-      <c r="XA4" t="s">
+      <c r="XC4" t="s">
         <v>2255</v>
-      </c>
-      <c r="XB4" t="s">
-        <v>2253</v>
-      </c>
-      <c r="XC4" t="s">
-        <v>2253</v>
       </c>
     </row>
     <row r="5" spans="583:629" x14ac:dyDescent="0.25">
@@ -16422,16 +16432,16 @@
         <v>578</v>
       </c>
       <c r="WI5" t="s">
-        <v>2033</v>
+        <v>2035</v>
       </c>
       <c r="WK5" t="s">
         <v>279</v>
       </c>
       <c r="WZ5" t="s">
-        <v>2253</v>
+        <v>2255</v>
       </c>
       <c r="XA5" t="s">
-        <v>2253</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="6" spans="583:629" x14ac:dyDescent="0.25">
@@ -16478,7 +16488,7 @@
         <v>579</v>
       </c>
       <c r="WI6" t="s">
-        <v>2034</v>
+        <v>2036</v>
       </c>
       <c r="WK6" t="s">
         <v>280</v>
@@ -16516,7 +16526,7 @@
         <v>580</v>
       </c>
       <c r="WI7" t="s">
-        <v>2035</v>
+        <v>2037</v>
       </c>
       <c r="WK7" t="s">
         <v>281</v>
@@ -16551,7 +16561,7 @@
         <v>581</v>
       </c>
       <c r="WI8" t="s">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="WK8" t="s">
         <v>282</v>
@@ -16583,7 +16593,7 @@
         <v>582</v>
       </c>
       <c r="WI9" t="s">
-        <v>2037</v>
+        <v>2039</v>
       </c>
       <c r="WK9" t="s">
         <v>283</v>
@@ -16615,7 +16625,7 @@
         <v>583</v>
       </c>
       <c r="WI10" t="s">
-        <v>2038</v>
+        <v>2040</v>
       </c>
       <c r="WK10" t="s">
         <v>284</v>
@@ -16647,7 +16657,7 @@
         <v>584</v>
       </c>
       <c r="WI11" t="s">
-        <v>2039</v>
+        <v>2041</v>
       </c>
       <c r="WK11" t="s">
         <v>285</v>
@@ -16679,7 +16689,7 @@
         <v>585</v>
       </c>
       <c r="WI12" t="s">
-        <v>2040</v>
+        <v>2042</v>
       </c>
       <c r="WK12" t="s">
         <v>286</v>
@@ -16711,7 +16721,7 @@
         <v>586</v>
       </c>
       <c r="WI13" t="s">
-        <v>2041</v>
+        <v>2043</v>
       </c>
       <c r="WK13" t="s">
         <v>287</v>
@@ -16743,7 +16753,7 @@
         <v>587</v>
       </c>
       <c r="WI14" t="s">
-        <v>2042</v>
+        <v>2044</v>
       </c>
       <c r="WK14" t="s">
         <v>288</v>
@@ -16775,7 +16785,7 @@
         <v>588</v>
       </c>
       <c r="WI15" t="s">
-        <v>2043</v>
+        <v>2045</v>
       </c>
       <c r="WK15" t="s">
         <v>289</v>
@@ -16807,7 +16817,7 @@
         <v>589</v>
       </c>
       <c r="WI16" t="s">
-        <v>2044</v>
+        <v>2046</v>
       </c>
       <c r="WK16" t="s">
         <v>290</v>
@@ -16839,7 +16849,7 @@
         <v>590</v>
       </c>
       <c r="WI17" t="s">
-        <v>2045</v>
+        <v>2047</v>
       </c>
       <c r="WK17" t="s">
         <v>291</v>
@@ -16871,7 +16881,7 @@
         <v>591</v>
       </c>
       <c r="WI18" t="s">
-        <v>2046</v>
+        <v>2048</v>
       </c>
       <c r="WK18" t="s">
         <v>292</v>
@@ -16900,7 +16910,7 @@
         <v>592</v>
       </c>
       <c r="WI19" t="s">
-        <v>2047</v>
+        <v>2049</v>
       </c>
       <c r="WK19" t="s">
         <v>293</v>
@@ -16929,7 +16939,7 @@
         <v>593</v>
       </c>
       <c r="WI20" t="s">
-        <v>2048</v>
+        <v>2050</v>
       </c>
       <c r="WK20" t="s">
         <v>294</v>
@@ -16958,7 +16968,7 @@
         <v>594</v>
       </c>
       <c r="WI21" t="s">
-        <v>2049</v>
+        <v>2051</v>
       </c>
       <c r="WK21" t="s">
         <v>295</v>
@@ -16987,7 +16997,7 @@
         <v>595</v>
       </c>
       <c r="WI22" t="s">
-        <v>2050</v>
+        <v>2052</v>
       </c>
       <c r="WK22" t="s">
         <v>296</v>
@@ -17016,7 +17026,7 @@
         <v>596</v>
       </c>
       <c r="WI23" t="s">
-        <v>2051</v>
+        <v>2053</v>
       </c>
       <c r="WK23" t="s">
         <v>297</v>
@@ -17045,7 +17055,7 @@
         <v>597</v>
       </c>
       <c r="WI24" t="s">
-        <v>2052</v>
+        <v>2054</v>
       </c>
       <c r="WK24" t="s">
         <v>298</v>
@@ -17074,7 +17084,7 @@
         <v>598</v>
       </c>
       <c r="WI25" t="s">
-        <v>2053</v>
+        <v>2055</v>
       </c>
       <c r="WK25" t="s">
         <v>299</v>
@@ -17103,7 +17113,7 @@
         <v>599</v>
       </c>
       <c r="WI26" t="s">
-        <v>2054</v>
+        <v>2056</v>
       </c>
       <c r="WK26" t="s">
         <v>300</v>
@@ -17132,7 +17142,7 @@
         <v>600</v>
       </c>
       <c r="WI27" t="s">
-        <v>2055</v>
+        <v>2057</v>
       </c>
       <c r="WK27" t="s">
         <v>301</v>
@@ -17161,7 +17171,7 @@
         <v>601</v>
       </c>
       <c r="WI28" t="s">
-        <v>2056</v>
+        <v>2058</v>
       </c>
       <c r="WK28" t="s">
         <v>302</v>
@@ -17190,7 +17200,7 @@
         <v>602</v>
       </c>
       <c r="WI29" t="s">
-        <v>2057</v>
+        <v>2059</v>
       </c>
       <c r="WK29" t="s">
         <v>303</v>
@@ -17219,7 +17229,7 @@
         <v>603</v>
       </c>
       <c r="WI30" t="s">
-        <v>2058</v>
+        <v>2060</v>
       </c>
       <c r="WK30" t="s">
         <v>304</v>
@@ -17248,7 +17258,7 @@
         <v>604</v>
       </c>
       <c r="WI31" t="s">
-        <v>2059</v>
+        <v>2061</v>
       </c>
       <c r="WK31" t="s">
         <v>305</v>
@@ -17277,7 +17287,7 @@
         <v>605</v>
       </c>
       <c r="WI32" t="s">
-        <v>2060</v>
+        <v>2062</v>
       </c>
       <c r="WK32" t="s">
         <v>306</v>
@@ -17306,7 +17316,7 @@
         <v>606</v>
       </c>
       <c r="WI33" t="s">
-        <v>2061</v>
+        <v>2063</v>
       </c>
       <c r="WK33" t="s">
         <v>307</v>
@@ -17335,7 +17345,7 @@
         <v>607</v>
       </c>
       <c r="WI34" t="s">
-        <v>2062</v>
+        <v>2064</v>
       </c>
       <c r="WK34" t="s">
         <v>308</v>
@@ -17364,7 +17374,7 @@
         <v>608</v>
       </c>
       <c r="WI35" t="s">
-        <v>2063</v>
+        <v>2065</v>
       </c>
       <c r="WK35" t="s">
         <v>309</v>
@@ -17393,7 +17403,7 @@
         <v>609</v>
       </c>
       <c r="WI36" t="s">
-        <v>2064</v>
+        <v>2066</v>
       </c>
       <c r="WK36" t="s">
         <v>310</v>
@@ -17422,7 +17432,7 @@
         <v>610</v>
       </c>
       <c r="WI37" t="s">
-        <v>2065</v>
+        <v>2067</v>
       </c>
       <c r="WK37" t="s">
         <v>311</v>
@@ -17451,7 +17461,7 @@
         <v>611</v>
       </c>
       <c r="WI38" t="s">
-        <v>2066</v>
+        <v>2068</v>
       </c>
       <c r="WK38" t="s">
         <v>312</v>
@@ -17480,7 +17490,7 @@
         <v>612</v>
       </c>
       <c r="WI39" t="s">
-        <v>2067</v>
+        <v>2069</v>
       </c>
       <c r="WK39" t="s">
         <v>313</v>
@@ -17509,7 +17519,7 @@
         <v>613</v>
       </c>
       <c r="WI40" t="s">
-        <v>2068</v>
+        <v>2070</v>
       </c>
       <c r="WK40" t="s">
         <v>314</v>
@@ -17538,7 +17548,7 @@
         <v>614</v>
       </c>
       <c r="WI41" t="s">
-        <v>2069</v>
+        <v>2071</v>
       </c>
       <c r="WK41" t="s">
         <v>315</v>
@@ -17567,7 +17577,7 @@
         <v>615</v>
       </c>
       <c r="WI42" t="s">
-        <v>2070</v>
+        <v>2072</v>
       </c>
       <c r="WK42" t="s">
         <v>316</v>
@@ -17596,7 +17606,7 @@
         <v>616</v>
       </c>
       <c r="WI43" t="s">
-        <v>2071</v>
+        <v>2073</v>
       </c>
       <c r="WK43" t="s">
         <v>317</v>
@@ -17625,7 +17635,7 @@
         <v>617</v>
       </c>
       <c r="WI44" t="s">
-        <v>2072</v>
+        <v>2074</v>
       </c>
       <c r="WK44" t="s">
         <v>318</v>
@@ -17654,7 +17664,7 @@
         <v>618</v>
       </c>
       <c r="WI45" t="s">
-        <v>2073</v>
+        <v>2075</v>
       </c>
       <c r="WK45" t="s">
         <v>319</v>
@@ -17683,7 +17693,7 @@
         <v>619</v>
       </c>
       <c r="WI46" t="s">
-        <v>2074</v>
+        <v>2076</v>
       </c>
       <c r="WK46" t="s">
         <v>320</v>
@@ -17712,7 +17722,7 @@
         <v>620</v>
       </c>
       <c r="WI47" t="s">
-        <v>2075</v>
+        <v>2077</v>
       </c>
       <c r="WK47" t="s">
         <v>321</v>
@@ -17741,7 +17751,7 @@
         <v>621</v>
       </c>
       <c r="WI48" t="s">
-        <v>2076</v>
+        <v>2078</v>
       </c>
       <c r="WK48" t="s">
         <v>322</v>
@@ -17770,7 +17780,7 @@
         <v>622</v>
       </c>
       <c r="WI49" t="s">
-        <v>2077</v>
+        <v>2079</v>
       </c>
       <c r="WK49" t="s">
         <v>323</v>
@@ -17799,7 +17809,7 @@
         <v>623</v>
       </c>
       <c r="WI50" t="s">
-        <v>2078</v>
+        <v>2080</v>
       </c>
       <c r="WK50" t="s">
         <v>324</v>
@@ -17828,7 +17838,7 @@
         <v>624</v>
       </c>
       <c r="WI51" t="s">
-        <v>2079</v>
+        <v>2081</v>
       </c>
       <c r="WK51" t="s">
         <v>325</v>
@@ -17857,7 +17867,7 @@
         <v>625</v>
       </c>
       <c r="WI52" t="s">
-        <v>2080</v>
+        <v>2082</v>
       </c>
       <c r="WK52" t="s">
         <v>326</v>
@@ -17886,7 +17896,7 @@
         <v>626</v>
       </c>
       <c r="WI53" t="s">
-        <v>2081</v>
+        <v>2083</v>
       </c>
       <c r="WK53" t="s">
         <v>327</v>
@@ -17915,7 +17925,7 @@
         <v>627</v>
       </c>
       <c r="WI54" t="s">
-        <v>2082</v>
+        <v>2084</v>
       </c>
       <c r="WK54" t="s">
         <v>328</v>
@@ -17944,7 +17954,7 @@
         <v>628</v>
       </c>
       <c r="WI55" t="s">
-        <v>2083</v>
+        <v>2085</v>
       </c>
       <c r="WK55" t="s">
         <v>329</v>
@@ -17973,7 +17983,7 @@
         <v>629</v>
       </c>
       <c r="WI56" t="s">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="WK56" t="s">
         <v>330</v>
@@ -18002,7 +18012,7 @@
         <v>630</v>
       </c>
       <c r="WI57" t="s">
-        <v>2085</v>
+        <v>2087</v>
       </c>
       <c r="WK57" t="s">
         <v>331</v>
@@ -18031,7 +18041,7 @@
         <v>631</v>
       </c>
       <c r="WI58" t="s">
-        <v>2086</v>
+        <v>2088</v>
       </c>
       <c r="WK58" t="s">
         <v>332</v>
@@ -18060,7 +18070,7 @@
         <v>632</v>
       </c>
       <c r="WI59" t="s">
-        <v>2087</v>
+        <v>2089</v>
       </c>
       <c r="WK59" t="s">
         <v>333</v>
@@ -18089,7 +18099,7 @@
         <v>633</v>
       </c>
       <c r="WI60" t="s">
-        <v>2088</v>
+        <v>2090</v>
       </c>
       <c r="WK60" t="s">
         <v>334</v>
@@ -18118,7 +18128,7 @@
         <v>634</v>
       </c>
       <c r="WI61" t="s">
-        <v>2089</v>
+        <v>2091</v>
       </c>
       <c r="WK61" t="s">
         <v>335</v>
@@ -18147,7 +18157,7 @@
         <v>635</v>
       </c>
       <c r="WI62" t="s">
-        <v>2090</v>
+        <v>2092</v>
       </c>
       <c r="WK62" t="s">
         <v>336</v>
@@ -18176,7 +18186,7 @@
         <v>636</v>
       </c>
       <c r="WI63" t="s">
-        <v>2091</v>
+        <v>2093</v>
       </c>
       <c r="WK63" t="s">
         <v>337</v>
@@ -18205,7 +18215,7 @@
         <v>637</v>
       </c>
       <c r="WI64" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
       <c r="WK64" t="s">
         <v>338</v>
@@ -18234,7 +18244,7 @@
         <v>638</v>
       </c>
       <c r="WI65" t="s">
-        <v>2093</v>
+        <v>2095</v>
       </c>
       <c r="WK65" t="s">
         <v>339</v>
@@ -18263,7 +18273,7 @@
         <v>639</v>
       </c>
       <c r="WI66" t="s">
-        <v>2094</v>
+        <v>2096</v>
       </c>
       <c r="WK66" t="s">
         <v>340</v>
@@ -18292,7 +18302,7 @@
         <v>640</v>
       </c>
       <c r="WI67" t="s">
-        <v>2095</v>
+        <v>2097</v>
       </c>
       <c r="WK67" t="s">
         <v>341</v>
@@ -18321,7 +18331,7 @@
         <v>641</v>
       </c>
       <c r="WI68" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
       <c r="WK68" t="s">
         <v>342</v>
@@ -18350,7 +18360,7 @@
         <v>642</v>
       </c>
       <c r="WI69" t="s">
-        <v>2097</v>
+        <v>2099</v>
       </c>
       <c r="WK69" t="s">
         <v>343</v>
@@ -18379,7 +18389,7 @@
         <v>643</v>
       </c>
       <c r="WI70" t="s">
-        <v>2098</v>
+        <v>2100</v>
       </c>
       <c r="WK70" t="s">
         <v>344</v>
@@ -18408,7 +18418,7 @@
         <v>644</v>
       </c>
       <c r="WI71" t="s">
-        <v>2099</v>
+        <v>2101</v>
       </c>
       <c r="WK71" t="s">
         <v>345</v>
@@ -18437,7 +18447,7 @@
         <v>645</v>
       </c>
       <c r="WI72" t="s">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c r="WK72" t="s">
         <v>346</v>
@@ -18466,7 +18476,7 @@
         <v>646</v>
       </c>
       <c r="WI73" t="s">
-        <v>2101</v>
+        <v>2103</v>
       </c>
       <c r="WK73" t="s">
         <v>347</v>
@@ -18495,7 +18505,7 @@
         <v>647</v>
       </c>
       <c r="WI74" t="s">
-        <v>2102</v>
+        <v>2104</v>
       </c>
       <c r="WK74" t="s">
         <v>348</v>
@@ -18524,7 +18534,7 @@
         <v>648</v>
       </c>
       <c r="WI75" t="s">
-        <v>2103</v>
+        <v>2105</v>
       </c>
       <c r="WK75" t="s">
         <v>349</v>
@@ -18553,7 +18563,7 @@
         <v>649</v>
       </c>
       <c r="WI76" t="s">
-        <v>2104</v>
+        <v>2106</v>
       </c>
       <c r="WK76" t="s">
         <v>350</v>
@@ -18582,7 +18592,7 @@
         <v>650</v>
       </c>
       <c r="WI77" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="WK77" t="s">
         <v>351</v>
@@ -18611,7 +18621,7 @@
         <v>651</v>
       </c>
       <c r="WI78" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="WK78" t="s">
         <v>352</v>
@@ -18640,7 +18650,7 @@
         <v>652</v>
       </c>
       <c r="WI79" t="s">
-        <v>2107</v>
+        <v>2109</v>
       </c>
       <c r="WK79" t="s">
         <v>353</v>
@@ -18669,7 +18679,7 @@
         <v>653</v>
       </c>
       <c r="WI80" t="s">
-        <v>2108</v>
+        <v>2110</v>
       </c>
       <c r="WK80" t="s">
         <v>354</v>
@@ -18698,7 +18708,7 @@
         <v>654</v>
       </c>
       <c r="WI81" t="s">
-        <v>2109</v>
+        <v>2111</v>
       </c>
       <c r="WK81" t="s">
         <v>355</v>
@@ -18727,7 +18737,7 @@
         <v>655</v>
       </c>
       <c r="WI82" t="s">
-        <v>2110</v>
+        <v>2112</v>
       </c>
       <c r="WK82" t="s">
         <v>356</v>
@@ -18756,7 +18766,7 @@
         <v>656</v>
       </c>
       <c r="WI83" t="s">
-        <v>2111</v>
+        <v>2113</v>
       </c>
       <c r="WK83" t="s">
         <v>357</v>
@@ -18785,7 +18795,7 @@
         <v>657</v>
       </c>
       <c r="WI84" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="WK84" t="s">
         <v>358</v>
@@ -18814,7 +18824,7 @@
         <v>658</v>
       </c>
       <c r="WI85" t="s">
-        <v>2113</v>
+        <v>2115</v>
       </c>
       <c r="WK85" t="s">
         <v>359</v>
@@ -18843,7 +18853,7 @@
         <v>659</v>
       </c>
       <c r="WI86" t="s">
-        <v>2114</v>
+        <v>2116</v>
       </c>
       <c r="WK86" t="s">
         <v>360</v>
@@ -18872,7 +18882,7 @@
         <v>660</v>
       </c>
       <c r="WI87" t="s">
-        <v>2115</v>
+        <v>2117</v>
       </c>
       <c r="WK87" t="s">
         <v>361</v>
@@ -18901,7 +18911,7 @@
         <v>661</v>
       </c>
       <c r="WI88" t="s">
-        <v>2116</v>
+        <v>2118</v>
       </c>
       <c r="WK88" t="s">
         <v>362</v>
@@ -18930,7 +18940,7 @@
         <v>662</v>
       </c>
       <c r="WI89" t="s">
-        <v>2117</v>
+        <v>2119</v>
       </c>
       <c r="WK89" t="s">
         <v>363</v>
@@ -18959,7 +18969,7 @@
         <v>663</v>
       </c>
       <c r="WI90" t="s">
-        <v>2118</v>
+        <v>2120</v>
       </c>
       <c r="WK90" t="s">
         <v>364</v>
@@ -18988,7 +18998,7 @@
         <v>664</v>
       </c>
       <c r="WI91" t="s">
-        <v>2119</v>
+        <v>2121</v>
       </c>
       <c r="WK91" t="s">
         <v>365</v>
@@ -19017,7 +19027,7 @@
         <v>665</v>
       </c>
       <c r="WI92" t="s">
-        <v>2120</v>
+        <v>2122</v>
       </c>
       <c r="WK92" t="s">
         <v>366</v>
@@ -19046,7 +19056,7 @@
         <v>666</v>
       </c>
       <c r="WI93" t="s">
-        <v>2121</v>
+        <v>2123</v>
       </c>
       <c r="WK93" t="s">
         <v>367</v>
@@ -19075,7 +19085,7 @@
         <v>667</v>
       </c>
       <c r="WI94" t="s">
-        <v>2122</v>
+        <v>2124</v>
       </c>
       <c r="WK94" t="s">
         <v>368</v>
@@ -19104,7 +19114,7 @@
         <v>668</v>
       </c>
       <c r="WI95" t="s">
-        <v>2123</v>
+        <v>2125</v>
       </c>
       <c r="WK95" t="s">
         <v>369</v>
@@ -19133,7 +19143,7 @@
         <v>669</v>
       </c>
       <c r="WI96" t="s">
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c r="WK96" t="s">
         <v>370</v>
@@ -19162,7 +19172,7 @@
         <v>670</v>
       </c>
       <c r="WI97" t="s">
-        <v>2125</v>
+        <v>2127</v>
       </c>
       <c r="WK97" t="s">
         <v>371</v>
@@ -19191,7 +19201,7 @@
         <v>671</v>
       </c>
       <c r="WI98" t="s">
-        <v>2126</v>
+        <v>2128</v>
       </c>
       <c r="WK98" t="s">
         <v>372</v>
@@ -19220,7 +19230,7 @@
         <v>672</v>
       </c>
       <c r="WI99" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
       <c r="WK99" t="s">
         <v>373</v>
@@ -19249,7 +19259,7 @@
         <v>673</v>
       </c>
       <c r="WI100" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
       <c r="WK100" t="s">
         <v>374</v>
@@ -19278,7 +19288,7 @@
         <v>674</v>
       </c>
       <c r="WI101" t="s">
-        <v>2129</v>
+        <v>2131</v>
       </c>
       <c r="WK101" t="s">
         <v>375</v>
@@ -19307,7 +19317,7 @@
         <v>675</v>
       </c>
       <c r="WI102" t="s">
-        <v>2130</v>
+        <v>2132</v>
       </c>
       <c r="WK102" t="s">
         <v>376</v>
@@ -19336,7 +19346,7 @@
         <v>676</v>
       </c>
       <c r="WI103" t="s">
-        <v>2131</v>
+        <v>2133</v>
       </c>
       <c r="WK103" t="s">
         <v>377</v>
@@ -19365,7 +19375,7 @@
         <v>677</v>
       </c>
       <c r="WI104" t="s">
-        <v>2132</v>
+        <v>2134</v>
       </c>
       <c r="WK104" t="s">
         <v>378</v>
@@ -19394,7 +19404,7 @@
         <v>678</v>
       </c>
       <c r="WI105" t="s">
-        <v>2133</v>
+        <v>2135</v>
       </c>
       <c r="WK105" t="s">
         <v>379</v>
@@ -19423,7 +19433,7 @@
         <v>679</v>
       </c>
       <c r="WI106" t="s">
-        <v>2134</v>
+        <v>2136</v>
       </c>
       <c r="WK106" t="s">
         <v>380</v>
@@ -19452,7 +19462,7 @@
         <v>680</v>
       </c>
       <c r="WI107" t="s">
-        <v>2135</v>
+        <v>2137</v>
       </c>
       <c r="WK107" t="s">
         <v>381</v>
@@ -19481,7 +19491,7 @@
         <v>681</v>
       </c>
       <c r="WI108" t="s">
-        <v>2136</v>
+        <v>2138</v>
       </c>
       <c r="WK108" t="s">
         <v>382</v>
@@ -19510,7 +19520,7 @@
         <v>682</v>
       </c>
       <c r="WI109" t="s">
-        <v>2137</v>
+        <v>2139</v>
       </c>
       <c r="WK109" t="s">
         <v>383</v>
@@ -19539,7 +19549,7 @@
         <v>683</v>
       </c>
       <c r="WI110" t="s">
-        <v>2138</v>
+        <v>2140</v>
       </c>
       <c r="WK110" t="s">
         <v>384</v>
@@ -19568,7 +19578,7 @@
         <v>684</v>
       </c>
       <c r="WI111" t="s">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="WK111" t="s">
         <v>385</v>
@@ -19597,7 +19607,7 @@
         <v>685</v>
       </c>
       <c r="WI112" t="s">
-        <v>2140</v>
+        <v>2142</v>
       </c>
       <c r="WK112" t="s">
         <v>386</v>
@@ -19626,7 +19636,7 @@
         <v>686</v>
       </c>
       <c r="WI113" t="s">
-        <v>2141</v>
+        <v>2143</v>
       </c>
       <c r="WK113" t="s">
         <v>387</v>
@@ -19655,7 +19665,7 @@
         <v>687</v>
       </c>
       <c r="WI114" t="s">
-        <v>2142</v>
+        <v>2144</v>
       </c>
       <c r="WK114" t="s">
         <v>388</v>
@@ -19684,7 +19694,7 @@
         <v>688</v>
       </c>
       <c r="WI115" t="s">
-        <v>2143</v>
+        <v>2145</v>
       </c>
       <c r="WK115" t="s">
         <v>389</v>
@@ -19713,7 +19723,7 @@
         <v>689</v>
       </c>
       <c r="WI116" t="s">
-        <v>2144</v>
+        <v>2146</v>
       </c>
       <c r="WK116" t="s">
         <v>390</v>
@@ -19742,7 +19752,7 @@
         <v>690</v>
       </c>
       <c r="WI117" t="s">
-        <v>2145</v>
+        <v>2147</v>
       </c>
       <c r="WK117" t="s">
         <v>391</v>
@@ -19771,7 +19781,7 @@
         <v>691</v>
       </c>
       <c r="WI118" t="s">
-        <v>2146</v>
+        <v>2148</v>
       </c>
       <c r="WK118" t="s">
         <v>392</v>
@@ -19800,7 +19810,7 @@
         <v>692</v>
       </c>
       <c r="WI119" t="s">
-        <v>2147</v>
+        <v>2149</v>
       </c>
       <c r="WK119" t="s">
         <v>393</v>
@@ -19829,7 +19839,7 @@
         <v>693</v>
       </c>
       <c r="WI120" t="s">
-        <v>2148</v>
+        <v>2150</v>
       </c>
       <c r="WK120" t="s">
         <v>394</v>
@@ -19858,7 +19868,7 @@
         <v>694</v>
       </c>
       <c r="WI121" t="s">
-        <v>2149</v>
+        <v>2151</v>
       </c>
       <c r="WK121" t="s">
         <v>395</v>
@@ -19887,7 +19897,7 @@
         <v>695</v>
       </c>
       <c r="WI122" t="s">
-        <v>2150</v>
+        <v>2152</v>
       </c>
       <c r="WK122" t="s">
         <v>396</v>
@@ -19916,7 +19926,7 @@
         <v>696</v>
       </c>
       <c r="WI123" t="s">
-        <v>2151</v>
+        <v>2153</v>
       </c>
       <c r="WK123" t="s">
         <v>397</v>
@@ -19945,7 +19955,7 @@
         <v>697</v>
       </c>
       <c r="WI124" t="s">
-        <v>2152</v>
+        <v>2154</v>
       </c>
       <c r="WK124" t="s">
         <v>398</v>
@@ -19974,7 +19984,7 @@
         <v>698</v>
       </c>
       <c r="WI125" t="s">
-        <v>2153</v>
+        <v>2155</v>
       </c>
       <c r="WK125" t="s">
         <v>399</v>
@@ -20003,7 +20013,7 @@
         <v>699</v>
       </c>
       <c r="WI126" t="s">
-        <v>2154</v>
+        <v>2156</v>
       </c>
       <c r="WK126" t="s">
         <v>400</v>
@@ -20032,7 +20042,7 @@
         <v>700</v>
       </c>
       <c r="WI127" t="s">
-        <v>2155</v>
+        <v>2157</v>
       </c>
       <c r="WK127" t="s">
         <v>401</v>
@@ -20061,7 +20071,7 @@
         <v>701</v>
       </c>
       <c r="WI128" t="s">
-        <v>2156</v>
+        <v>2158</v>
       </c>
       <c r="WK128" t="s">
         <v>402</v>
@@ -20090,7 +20100,7 @@
         <v>702</v>
       </c>
       <c r="WI129" t="s">
-        <v>2157</v>
+        <v>2159</v>
       </c>
       <c r="WK129" t="s">
         <v>403</v>
@@ -20119,7 +20129,7 @@
         <v>703</v>
       </c>
       <c r="WI130" t="s">
-        <v>2158</v>
+        <v>2160</v>
       </c>
       <c r="WK130" t="s">
         <v>404</v>
@@ -20148,7 +20158,7 @@
         <v>704</v>
       </c>
       <c r="WI131" t="s">
-        <v>2159</v>
+        <v>2161</v>
       </c>
       <c r="WK131" t="s">
         <v>405</v>
@@ -20177,7 +20187,7 @@
         <v>705</v>
       </c>
       <c r="WI132" t="s">
-        <v>2160</v>
+        <v>2162</v>
       </c>
       <c r="WK132" t="s">
         <v>406</v>
@@ -20206,7 +20216,7 @@
         <v>706</v>
       </c>
       <c r="WI133" t="s">
-        <v>2161</v>
+        <v>2163</v>
       </c>
       <c r="WK133" t="s">
         <v>407</v>
@@ -20235,7 +20245,7 @@
         <v>707</v>
       </c>
       <c r="WI134" t="s">
-        <v>2162</v>
+        <v>2164</v>
       </c>
       <c r="WK134" t="s">
         <v>408</v>
@@ -20264,7 +20274,7 @@
         <v>708</v>
       </c>
       <c r="WI135" t="s">
-        <v>2163</v>
+        <v>2165</v>
       </c>
       <c r="WK135" t="s">
         <v>409</v>
@@ -20293,7 +20303,7 @@
         <v>709</v>
       </c>
       <c r="WI136" t="s">
-        <v>2164</v>
+        <v>2166</v>
       </c>
       <c r="WK136" t="s">
         <v>410</v>
@@ -20322,7 +20332,7 @@
         <v>710</v>
       </c>
       <c r="WI137" t="s">
-        <v>2165</v>
+        <v>2167</v>
       </c>
       <c r="WK137" t="s">
         <v>411</v>
@@ -20351,7 +20361,7 @@
         <v>711</v>
       </c>
       <c r="WI138" t="s">
-        <v>2166</v>
+        <v>2168</v>
       </c>
       <c r="WK138" t="s">
         <v>412</v>
@@ -20380,7 +20390,7 @@
         <v>712</v>
       </c>
       <c r="WI139" t="s">
-        <v>2167</v>
+        <v>2169</v>
       </c>
       <c r="WK139" t="s">
         <v>413</v>
@@ -20409,7 +20419,7 @@
         <v>713</v>
       </c>
       <c r="WI140" t="s">
-        <v>2168</v>
+        <v>2170</v>
       </c>
       <c r="WK140" t="s">
         <v>414</v>
@@ -20438,7 +20448,7 @@
         <v>714</v>
       </c>
       <c r="WI141" t="s">
-        <v>2169</v>
+        <v>2171</v>
       </c>
       <c r="WK141" t="s">
         <v>415</v>
@@ -20467,7 +20477,7 @@
         <v>715</v>
       </c>
       <c r="WI142" t="s">
-        <v>2170</v>
+        <v>2172</v>
       </c>
       <c r="WK142" t="s">
         <v>416</v>
@@ -20496,7 +20506,7 @@
         <v>716</v>
       </c>
       <c r="WI143" t="s">
-        <v>2171</v>
+        <v>2173</v>
       </c>
       <c r="WK143" t="s">
         <v>417</v>
@@ -20525,7 +20535,7 @@
         <v>717</v>
       </c>
       <c r="WI144" t="s">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c r="WK144" t="s">
         <v>418</v>
@@ -20554,7 +20564,7 @@
         <v>718</v>
       </c>
       <c r="WI145" t="s">
-        <v>2173</v>
+        <v>2175</v>
       </c>
       <c r="WK145" t="s">
         <v>419</v>
@@ -20583,7 +20593,7 @@
         <v>719</v>
       </c>
       <c r="WI146" t="s">
-        <v>2174</v>
+        <v>2176</v>
       </c>
       <c r="WK146" t="s">
         <v>420</v>
@@ -20612,7 +20622,7 @@
         <v>720</v>
       </c>
       <c r="WI147" t="s">
-        <v>2175</v>
+        <v>2177</v>
       </c>
       <c r="WK147" t="s">
         <v>421</v>
@@ -20641,7 +20651,7 @@
         <v>721</v>
       </c>
       <c r="WI148" t="s">
-        <v>2176</v>
+        <v>2178</v>
       </c>
       <c r="WK148" t="s">
         <v>422</v>
@@ -20670,7 +20680,7 @@
         <v>722</v>
       </c>
       <c r="WI149" t="s">
-        <v>2177</v>
+        <v>2179</v>
       </c>
       <c r="WK149" t="s">
         <v>423</v>
@@ -20699,7 +20709,7 @@
         <v>723</v>
       </c>
       <c r="WI150" t="s">
-        <v>2178</v>
+        <v>2180</v>
       </c>
       <c r="WK150" t="s">
         <v>424</v>
@@ -20728,7 +20738,7 @@
         <v>724</v>
       </c>
       <c r="WI151" t="s">
-        <v>2179</v>
+        <v>2181</v>
       </c>
       <c r="WK151" t="s">
         <v>425</v>
@@ -20757,7 +20767,7 @@
         <v>725</v>
       </c>
       <c r="WI152" t="s">
-        <v>2180</v>
+        <v>2182</v>
       </c>
       <c r="WK152" t="s">
         <v>426</v>
@@ -20786,7 +20796,7 @@
         <v>726</v>
       </c>
       <c r="WI153" t="s">
-        <v>2181</v>
+        <v>2183</v>
       </c>
       <c r="WK153" t="s">
         <v>427</v>
@@ -20815,7 +20825,7 @@
         <v>727</v>
       </c>
       <c r="WI154" t="s">
-        <v>2182</v>
+        <v>2184</v>
       </c>
       <c r="WK154" t="s">
         <v>428</v>
@@ -20844,7 +20854,7 @@
         <v>728</v>
       </c>
       <c r="WI155" t="s">
-        <v>2183</v>
+        <v>2185</v>
       </c>
       <c r="WK155" t="s">
         <v>429</v>
@@ -20873,7 +20883,7 @@
         <v>729</v>
       </c>
       <c r="WI156" t="s">
-        <v>2184</v>
+        <v>2186</v>
       </c>
       <c r="WK156" t="s">
         <v>430</v>
@@ -20902,7 +20912,7 @@
         <v>730</v>
       </c>
       <c r="WI157" t="s">
-        <v>2185</v>
+        <v>2187</v>
       </c>
       <c r="WK157" t="s">
         <v>431</v>
@@ -20931,7 +20941,7 @@
         <v>731</v>
       </c>
       <c r="WI158" t="s">
-        <v>2186</v>
+        <v>2188</v>
       </c>
       <c r="WK158" t="s">
         <v>432</v>
@@ -20960,7 +20970,7 @@
         <v>732</v>
       </c>
       <c r="WI159" t="s">
-        <v>2187</v>
+        <v>2189</v>
       </c>
       <c r="WK159" t="s">
         <v>433</v>
@@ -20989,7 +20999,7 @@
         <v>733</v>
       </c>
       <c r="WI160" t="s">
-        <v>2188</v>
+        <v>2190</v>
       </c>
       <c r="WK160" t="s">
         <v>434</v>
@@ -21018,7 +21028,7 @@
         <v>734</v>
       </c>
       <c r="WI161" t="s">
-        <v>2189</v>
+        <v>2191</v>
       </c>
       <c r="WK161" t="s">
         <v>435</v>
@@ -21047,7 +21057,7 @@
         <v>735</v>
       </c>
       <c r="WI162" t="s">
-        <v>2190</v>
+        <v>2192</v>
       </c>
       <c r="WK162" t="s">
         <v>436</v>
@@ -21076,7 +21086,7 @@
         <v>736</v>
       </c>
       <c r="WI163" t="s">
-        <v>2191</v>
+        <v>2193</v>
       </c>
       <c r="WK163" t="s">
         <v>437</v>
@@ -21105,7 +21115,7 @@
         <v>737</v>
       </c>
       <c r="WI164" t="s">
-        <v>2192</v>
+        <v>2194</v>
       </c>
       <c r="WK164" t="s">
         <v>438</v>
@@ -21134,7 +21144,7 @@
         <v>738</v>
       </c>
       <c r="WI165" t="s">
-        <v>2193</v>
+        <v>2195</v>
       </c>
       <c r="WK165" t="s">
         <v>439</v>
@@ -21163,7 +21173,7 @@
         <v>739</v>
       </c>
       <c r="WI166" t="s">
-        <v>2194</v>
+        <v>2196</v>
       </c>
       <c r="WK166" t="s">
         <v>440</v>
@@ -21192,7 +21202,7 @@
         <v>740</v>
       </c>
       <c r="WI167" t="s">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="WK167" t="s">
         <v>441</v>
@@ -21221,7 +21231,7 @@
         <v>741</v>
       </c>
       <c r="WI168" t="s">
-        <v>2196</v>
+        <v>2198</v>
       </c>
       <c r="WK168" t="s">
         <v>442</v>
@@ -21250,7 +21260,7 @@
         <v>742</v>
       </c>
       <c r="WI169" t="s">
-        <v>2197</v>
+        <v>2199</v>
       </c>
       <c r="WK169" t="s">
         <v>443</v>
@@ -21279,7 +21289,7 @@
         <v>743</v>
       </c>
       <c r="WI170" t="s">
-        <v>2198</v>
+        <v>2200</v>
       </c>
       <c r="WK170" t="s">
         <v>444</v>
@@ -21308,7 +21318,7 @@
         <v>744</v>
       </c>
       <c r="WI171" t="s">
-        <v>2199</v>
+        <v>2201</v>
       </c>
       <c r="WK171" t="s">
         <v>445</v>
@@ -21337,7 +21347,7 @@
         <v>745</v>
       </c>
       <c r="WI172" t="s">
-        <v>2200</v>
+        <v>2202</v>
       </c>
       <c r="WK172" t="s">
         <v>446</v>
@@ -21366,7 +21376,7 @@
         <v>746</v>
       </c>
       <c r="WI173" t="s">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="WK173" t="s">
         <v>447</v>
@@ -21395,7 +21405,7 @@
         <v>747</v>
       </c>
       <c r="WI174" t="s">
-        <v>2202</v>
+        <v>2204</v>
       </c>
       <c r="WK174" t="s">
         <v>448</v>
@@ -21424,7 +21434,7 @@
         <v>748</v>
       </c>
       <c r="WI175" t="s">
-        <v>2203</v>
+        <v>2205</v>
       </c>
       <c r="WK175" t="s">
         <v>449</v>
@@ -21453,7 +21463,7 @@
         <v>749</v>
       </c>
       <c r="WI176" t="s">
-        <v>2204</v>
+        <v>2206</v>
       </c>
       <c r="WK176" t="s">
         <v>450</v>
@@ -21482,7 +21492,7 @@
         <v>750</v>
       </c>
       <c r="WI177" t="s">
-        <v>2205</v>
+        <v>2207</v>
       </c>
       <c r="WK177" t="s">
         <v>451</v>
@@ -21511,7 +21521,7 @@
         <v>751</v>
       </c>
       <c r="WI178" t="s">
-        <v>2206</v>
+        <v>2208</v>
       </c>
       <c r="WK178" t="s">
         <v>452</v>
@@ -21540,7 +21550,7 @@
         <v>752</v>
       </c>
       <c r="WI179" t="s">
-        <v>2207</v>
+        <v>2209</v>
       </c>
       <c r="WK179" t="s">
         <v>453</v>
@@ -21569,7 +21579,7 @@
         <v>753</v>
       </c>
       <c r="WI180" t="s">
-        <v>2208</v>
+        <v>2210</v>
       </c>
       <c r="WK180" t="s">
         <v>454</v>
@@ -21598,7 +21608,7 @@
         <v>754</v>
       </c>
       <c r="WI181" t="s">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="WK181" t="s">
         <v>455</v>
@@ -21627,7 +21637,7 @@
         <v>755</v>
       </c>
       <c r="WI182" t="s">
-        <v>2210</v>
+        <v>2212</v>
       </c>
       <c r="WK182" t="s">
         <v>456</v>
@@ -21656,7 +21666,7 @@
         <v>756</v>
       </c>
       <c r="WI183" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
       <c r="WK183" t="s">
         <v>457</v>
@@ -21685,7 +21695,7 @@
         <v>757</v>
       </c>
       <c r="WI184" t="s">
-        <v>2212</v>
+        <v>2214</v>
       </c>
       <c r="WK184" t="s">
         <v>458</v>
@@ -21711,7 +21721,7 @@
         <v>758</v>
       </c>
       <c r="WI185" t="s">
-        <v>2213</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="186" spans="583:609" x14ac:dyDescent="0.25">
@@ -26782,9 +26792,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -26819,7 +26829,7 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>157</v>
@@ -26828,7 +26838,7 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>122</v>
@@ -26837,7 +26847,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>124</v>
@@ -26846,7 +26856,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>126</v>
@@ -26855,7 +26865,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="17" t="s">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>128</v>
@@ -26864,7 +26874,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>132</v>
@@ -26873,7 +26883,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>134</v>
@@ -26882,7 +26892,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>136</v>
@@ -26891,7 +26901,7 @@
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>138</v>
@@ -26900,7 +26910,7 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>140</v>
@@ -26909,7 +26919,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>142</v>
@@ -26918,7 +26928,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>144</v>
@@ -26927,7 +26937,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="17" t="s">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>146</v>
@@ -26936,7 +26946,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>148</v>
@@ -26945,7 +26955,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="17" t="s">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>152</v>
@@ -26954,7 +26964,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="17" t="s">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>1934</v>
@@ -26963,7 +26973,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="17" t="s">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>1936</v>
@@ -26972,7 +26982,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="17" t="s">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>114</v>
@@ -26981,7 +26991,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="17" t="s">
-        <v>2027</v>
+        <v>2029</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>102</v>
@@ -26990,7 +27000,7 @@
     </row>
     <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>104</v>
@@ -27076,9 +27086,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -27151,10 +27161,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" style="62" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="59" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="62" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="40" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="59" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -27194,7 +27204,7 @@
         <v>2005</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -27202,10 +27212,10 @@
         <v>2004</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>116</v>
+        <v>2006</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>118</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -27246,9 +27256,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -28327,9 +28337,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="20" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="20" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
@@ -30299,9 +30309,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="2" customWidth="1"/>
-    <col min="4" max="12" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
